--- a/Producción Propia/Trabajos Prácticos/Entregados/ISW_4K1_TP5_Grupo4.xlsx
+++ b/Producción Propia/Trabajos Prácticos/Entregados/ISW_4K1_TP5_Grupo4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Dropbox\Facultad\2017\ISW\Trabajos Prácticos\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NICO\Documents\GitHub\ISW_2017\Producción Propia\Trabajos Prácticos\Entregados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="173">
   <si>
     <t>TC_001</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Pendiente de Corrección</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>El sistema muestra error "La fecha de inicio no puede ser anterior a la fecha actual".</t>
   </si>
   <si>
@@ -596,15 +593,43 @@
   <si>
     <t>Severo</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACLARACIÓN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> No ponemos una clase de equivalencia Usuario porque asumimos que ya se encuentra logeado un usuario con permisos suficientes</t>
+    </r>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Puesto Disponible Seleccionado</t>
+  </si>
+  <si>
+    <t>No selecciona puesto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -742,6 +767,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1228,19 +1259,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1258,17 +1276,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1389,6 +1396,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1406,7 +1441,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1588,15 +1623,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,9 +1639,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1627,75 +1653,132 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1717,56 +1800,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1781,56 +1831,7 @@
     <cellStyle name="Normal 2 2" xfId="8"/>
     <cellStyle name="Total" xfId="9" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
@@ -2277,7 +2278,7 @@
         <xdr:cNvPr id="2" name="Imagen 1" descr="C:\Users\jmele\AppData\Local\Microsoft\Windows\INetCacheContent.Word\Diseño de Interfaces.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4D8C93-4A2F-4502-8E43-5732736ADE6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B4D8C93-4A2F-4502-8E43-5732736ADE6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,23 +2320,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10582</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1894416</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>148166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>211665</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Cerrar llave 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7A8952-2F1A-49E1-B539-20B2AFAA4900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4E7A8952-2F1A-49E1-B539-20B2AFAA4900}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,8 +2344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6381749" y="4011083"/>
-          <a:ext cx="201083" cy="338666"/>
+          <a:off x="6551083" y="4011083"/>
+          <a:ext cx="193674" cy="338667"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -2397,7 +2398,7 @@
         <xdr:cNvPr id="4" name="Conector recto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33997614-25CF-4F9D-B05C-60C66AB29DE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33997614-25CF-4F9D-B05C-60C66AB29DE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2447,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD878C2A-4AEE-43BA-B7EC-A9FE200AC7AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD878C2A-4AEE-43BA-B7EC-A9FE200AC7AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3004,10 +3005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3023,35 +3024,35 @@
   <sheetData>
     <row r="1" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="92"/>
+      <c r="B2" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="2:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="91" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="105"/>
     </row>
     <row r="4" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="118">
         <v>1</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="121" t="s">
         <v>119</v>
       </c>
       <c r="E4" s="60">
@@ -3062,9 +3063,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="94"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="87"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="60">
         <v>3</v>
       </c>
@@ -3079,9 +3080,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="94"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="87"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="60">
         <v>4</v>
       </c>
@@ -3090,9 +3091,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="94"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="60">
         <v>5</v>
       </c>
@@ -3101,9 +3102,9 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="95"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="88"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="60">
         <v>6</v>
       </c>
@@ -3112,13 +3113,13 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="117">
         <v>7</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="120" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="59">
@@ -3127,11 +3128,14 @@
       <c r="F9" s="68" t="s">
         <v>108</v>
       </c>
+      <c r="H9" s="134" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="94"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="87"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="60">
         <v>9</v>
       </c>
@@ -3140,9 +3144,9 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="94"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="87"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="60">
         <v>10</v>
       </c>
@@ -3151,9 +3155,9 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="88"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="60">
         <v>11</v>
       </c>
@@ -3162,13 +3166,13 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="114">
         <v>12</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="111" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="61">
@@ -3179,9 +3183,9 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="101"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="60">
         <v>14</v>
       </c>
@@ -3190,9 +3194,9 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="60">
         <v>15</v>
       </c>
@@ -3214,162 +3218,183 @@
         <v>17</v>
       </c>
       <c r="F16" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="84">
+        <v>18</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="59">
+        <v>19</v>
+      </c>
+      <c r="F17" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="123"/>
+    </row>
+    <row r="18" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="71">
+        <v>20</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="71">
+        <v>21</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="83"/>
+    </row>
+    <row r="19" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+    </row>
+    <row r="21" spans="2:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="105"/>
+    </row>
+    <row r="22" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="97">
+        <v>22</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="86">
+        <v>23</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="101"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="63">
+        <v>24</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="101"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="63">
+        <v>25</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="101"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="63">
+        <v>26</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="101"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="63">
+        <v>27</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="101"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="63">
+        <v>28</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="101"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="64">
+        <v>29</v>
+      </c>
+      <c r="F28" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="72">
-        <v>18</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="74">
-        <v>19</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-    </row>
-    <row r="19" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="92"/>
-    </row>
-    <row r="20" spans="2:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="92"/>
-    </row>
-    <row r="21" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="117">
-        <v>20</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="116">
-        <v>21</v>
-      </c>
-      <c r="F21" s="119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="94"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="63">
-        <v>22</v>
-      </c>
-      <c r="F22" s="121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="94"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="63">
-        <v>23</v>
-      </c>
-      <c r="F23" s="121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="94"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="63">
-        <v>24</v>
-      </c>
-      <c r="F24" s="121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="94"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="63">
-        <v>25</v>
-      </c>
-      <c r="F25" s="121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="94"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="63">
-        <v>26</v>
-      </c>
-      <c r="F26" s="121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="94"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="64">
-        <v>27</v>
-      </c>
-      <c r="F27" s="121" t="s">
+    </row>
+    <row r="29" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="102"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="90">
+        <v>30</v>
+      </c>
+      <c r="F29" s="89" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="127"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="128">
-        <v>28</v>
-      </c>
-      <c r="F28" s="123" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B22:B29"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B15"/>
@@ -3379,9 +3404,6 @@
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3395,9 +3417,9 @@
   </sheetPr>
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3460,14 +3482,14 @@
       <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3495,12 +3517,12 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -3528,12 +3550,12 @@
       <c r="AE3" s="4"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -3561,16 +3583,16 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="110"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -3624,34 +3646,34 @@
     </row>
     <row r="7" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="109" t="s">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109" t="s">
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109" t="s">
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
     </row>
     <row r="9" spans="1:45" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -3749,27 +3771,27 @@
       <c r="AB10" s="6"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="1:45" s="83" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:45" s="80" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <v>1</v>
       </c>
-      <c r="D11" s="79" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="81" t="s">
+      <c r="D11" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="79" t="s">
-        <v>137</v>
+      <c r="G11" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>133</v>
@@ -3777,211 +3799,225 @@
       <c r="I11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="80">
+      <c r="J11" s="133" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="131">
         <v>1</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="37">
+        <v>42990</v>
+      </c>
       <c r="M11" s="15"/>
       <c r="N11" s="28"/>
       <c r="O11" s="29"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="82"/>
+      <c r="Q11" s="79"/>
       <c r="R11" s="15"/>
       <c r="S11" s="28"/>
       <c r="T11" s="29"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-    </row>
-    <row r="12" spans="1:45" s="83" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="81"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="81"/>
+    </row>
+    <row r="12" spans="1:45" s="80" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="82">
         <v>10</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="79" t="s">
+      <c r="G12" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="77" t="s">
         <v>133</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="K12" s="29">
         <v>2</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="82"/>
+      <c r="L12" s="37">
+        <v>42990</v>
+      </c>
+      <c r="M12" s="79"/>
       <c r="N12" s="15"/>
       <c r="O12" s="28"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="82"/>
+      <c r="R12" s="79"/>
       <c r="S12" s="15"/>
       <c r="T12" s="28"/>
       <c r="U12" s="29"/>
       <c r="V12" s="16"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-    </row>
-    <row r="13" spans="1:45" s="83" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="81"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+    </row>
+    <row r="13" spans="1:45" s="80" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A13" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C13" s="91">
         <v>3</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="79" t="s">
+      <c r="G13" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="77" t="s">
         <v>133</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="85"/>
+      <c r="J13" s="132" t="s">
+        <v>163</v>
+      </c>
       <c r="K13" s="29">
         <v>3</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="82"/>
+      <c r="L13" s="37">
+        <v>42990</v>
+      </c>
+      <c r="M13" s="79"/>
       <c r="N13" s="15"/>
       <c r="O13" s="28"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="82"/>
+      <c r="R13" s="79"/>
       <c r="S13" s="15"/>
       <c r="T13" s="28"/>
       <c r="U13" s="29"/>
       <c r="V13" s="16"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-    </row>
-    <row r="14" spans="1:45" s="83" customFormat="1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="AN13" s="81"/>
+      <c r="AO13" s="81"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="81"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="81"/>
+    </row>
+    <row r="14" spans="1:45" s="80" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A14" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="77" t="s">
+      <c r="B14" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="82">
+        <v>21</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="77" t="s">
         <v>166</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>167</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="28"/>
+      <c r="J14" s="28" t="s">
+        <v>163</v>
+      </c>
       <c r="K14" s="29">
         <v>4</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="82"/>
+      <c r="L14" s="37">
+        <v>42990</v>
+      </c>
+      <c r="M14" s="79"/>
       <c r="N14" s="15"/>
       <c r="O14" s="28"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="82"/>
+      <c r="R14" s="79"/>
       <c r="S14" s="15"/>
       <c r="T14" s="28"/>
       <c r="U14" s="29"/>
       <c r="V14" s="16"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-    </row>
-    <row r="15" spans="1:45" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76" t="s">
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="81"/>
+    </row>
+    <row r="15" spans="1:45" s="80" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="15"/>
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="82"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="15"/>
       <c r="O15" s="28"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="82"/>
+      <c r="R15" s="79"/>
       <c r="S15" s="15"/>
       <c r="T15" s="28"/>
       <c r="U15" s="29"/>
       <c r="V15" s="16"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
+      <c r="AN15" s="81"/>
+      <c r="AO15" s="81"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="81"/>
+      <c r="AS15" s="81"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
@@ -5851,146 +5887,146 @@
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="J623:J747 J749 J751 J753 J755 J757 J759 J761 J763 J765:J771 J919:J1042 J1044:J1181 J1186:J1200 J1205:J1209 J1214:J1263 J1267:J1291 J1293:J1385 J1389:J1413 J1415:J1474 J1476:J1562 J1601:J1622 J1759:J1760 J1763:J1790 J1918:J1959 J1962:J1964 J1967 J1969:J1971 J1974:J2011 J2014:J2054 J2057:J2079 J2082:J2085 J2088 J2090:J2092 J2095:J2136 J2332:J65044 J9:J10 O623:O747 O749 O751 O753 O755 O757 O759 O761 O763 O765:O771 O919:O1042 O1044:O1181 O1186:O1200 O1205:O1209 O1214:O1263 O1267:O1291 O1293:O1385 O1389:O1413 O1415:O1474 O1476:O1562 O1601:O1622 O1759:O1760 O1763:O1790 O1918:O1959 O1962:O1964 O1967 O1969:O1971 O1974:O2011 O2014:O2054 O2057:O2079 O2082:O2085 O2088 O2090:O2092 O2095:O2136 O2332:O65044 O9:O10 O12:O606 J12 J14:J606">
-    <cfRule type="cellIs" dxfId="53" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="82" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="83" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="84" stopIfTrue="1" operator="equal">
       <formula>"Can't Run"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N73 I15:I73 I11:I13">
-    <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="74" operator="equal">
       <formula>"To Be Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="75" operator="equal">
       <formula>"Not Apply"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="76" operator="equal">
       <formula>"Can't run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="77" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="78" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N73 I15:I73 I11:I13">
-    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
       <formula>"Paso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="60" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T623:T747 T749 T751 T753 T755 T757 T759 T761 T763 T765:T771 T919:T1042 T1044:T1181 T1186:T1200 T1205:T1209 T1214:T1263 T1267:T1291 T1293:T1385 T1389:T1413 T1415:T1474 T1476:T1562 T1601:T1622 T1759:T1760 T1763:T1790 T1918:T1959 T1962:T1964 T1967 T1969:T1971 T1974:T2011 T2014:T2054 T2057:T2079 T2082:T2085 T2088 T2090:T2092 T2095:T2136 T2332:T65044 T9:T10 T12:T606">
-    <cfRule type="cellIs" dxfId="43" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Can't Run"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S73">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
       <formula>"To Be Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
       <formula>"Not Apply"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
       <formula>"Can't run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S73">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>"Paso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 N11">
-    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Can't Run"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
       <formula>"To Be Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>"Not Apply"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
       <formula>"Can't run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
       <formula>"Paso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="23" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Can't Run"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="equal">
       <formula>"To Be Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="equal">
       <formula>"Not Apply"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>"Can't run"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"Paso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6038,8 +6074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6099,123 +6135,123 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="A4" s="76">
+      <c r="A4" s="74">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="76">
         <v>42990</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="84" x14ac:dyDescent="0.2">
+      <c r="A5" s="74">
+        <v>2</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="76">
+        <v>42990</v>
+      </c>
+      <c r="D5" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="77" t="s">
+      <c r="E5" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G5" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H5" s="75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="84" x14ac:dyDescent="0.2">
-      <c r="A5" s="76">
-        <v>2</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="78">
+    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.2">
+      <c r="A6" s="74">
+        <v>3</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="76">
         <v>42990</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="77" t="s">
+      <c r="D6" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G6" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H6" s="92" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="108" x14ac:dyDescent="0.2">
-      <c r="A6" s="76">
-        <v>3</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="78">
-        <v>42990</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="130" t="s">
+      <c r="I6" s="93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" s="74">
+        <v>4</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="76">
+        <v>42994</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="131" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A7" s="76">
-        <v>4</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="78">
-        <v>42994</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="76">
+      <c r="A8" s="74">
         <v>5</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
@@ -6352,12 +6388,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6487,17 +6522,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6521,17 +6565,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>